--- a/data/Контрольная работа № 2 (Общая экология 2023)(1-106).xlsx
+++ b/data/Контрольная работа № 2 (Общая экология 2023)(1-106).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2410" uniqueCount="976">
   <si>
     <t>Почта</t>
   </si>
@@ -2927,6 +2927,36 @@
   </si>
   <si>
     <t>- океанические глубины;- плантацию шампиньонов;- культуру дождевого червя;- маршевые луга;- пойменные луга;</t>
+  </si>
+  <si>
+    <t>st108713@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Полина Вишневская</t>
+  </si>
+  <si>
+    <t>Человек - Саранча;Пятнистая гиена - Лев;Yersinia pestis - Pediculus humanus;Toxoplasma - Кошка;</t>
+  </si>
+  <si>
+    <t>У некоторых организмов успешная защита от врагов может происходить только при плотности популяции не ниже определенного уровня.;У некоторых организмов успешное размножение может происходить только при плотности популяции не ниже определенного уровня.;У некоторых видов, если плотность популяции становится ниже некоторого критического значения, величина мгновенной удельной смертности становится выше чем величина мгновенной удельной рождаемости;У некоторых организмов нормальное воспроизведение возможно только при достаточно большом количестве особей, объединенных в группы.;</t>
+  </si>
+  <si>
+    <t>Территориальное поведение является следствием внутривидовой конкуренции;Конкурирующие виды могут сосуществовать если их реализованные экологические ниши расходятся.;Реализованная ниша не может быть больше экологической лицензии.;Внутривидовая конкуренция часто проявляется в форме агрессивных взаимодействий между животными;Реализованная экологическая ниша всегда меньше фундаментальной ниши.;По мере роста плотности поселения у растений происходит увеличение варьирования вероятности выживания одновозрастных особей.;Внутривидовая конкуренция может приводить к расширению границ реализованной экологической ниши;</t>
+  </si>
+  <si>
+    <t>Биогеоценоз — это экосистема в границах фитоценоза;Экосистема – это совокупность организмов и неорганических компонентов, в которой может осуществляться круговорот веществ.;Гомеостаз - это способность популяции или экосистемы поддерживать устойчивое динамическое равновесие в изменяющихся условиях среды.;Трофический уровень — это совокупность организмов, занимающих определенное положение в общей цепи питания.;</t>
+  </si>
+  <si>
+    <t>st106929@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Ульяна Карвелис</t>
+  </si>
+  <si>
+    <t>Дефицит фосфора дает преимущества видам микроорганизмов, способным выделять в среду вещества, ингибирующие рост конкурентов, эти вещества также отрицательно влияют на размножение фито-  и зоопланктона, в результате пищевая база рыб подрывается, голод приводит к массовому отмиранию рыб.;Высокие значения pH дают преимущества некоторым видам микроорганизмов, способным выделять в среду вещества, которые негативно влияют на рыб.;Обогащение морских акваторий азотом и фосфором с сельскохозяйственных угодий, расположенных на побережье, приводит к развитию бактерий, которые поглощают кислород, что приводит к гипоксии во всем объеме моря, а это  приводит к массовой гибели рыб.;Обогащение морских акваторий  фосфором, выносящимся с сельскохозяйственных угодий, расположенных на побережье, стимулирует рост первичной продукции, что приводит к снижению вторичной продукции.;Дефицит фосфора дает преимущества видам микроорганизмов, способным выделять в среду вещества, ингибирующие рост конкурентов, эти вещества также негативно влияют на рыб.;</t>
+  </si>
+  <si>
+    <t>Человек - Саранча;Пятнистая гиена - Лев;Антилопа Гну - Белый носорог;Муравьи - Тля;Муравьи листорезы - грибы аскомицеты (Chaetothyriales);</t>
   </si>
 </sst>
 </file>
@@ -3403,26 +3433,26 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3546,11 +3576,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3810,8 +3843,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BM107" totalsRowShown="0">
-  <autoFilter ref="A1:BM107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:BM109" totalsRowShown="0">
+  <autoFilter ref="A1:BM109"/>
   <tableColumns count="65">
     <tableColumn id="4" name="Почта" dataDxfId="0"/>
     <tableColumn id="5" name="Имя" dataDxfId="1"/>
@@ -4141,10 +4174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BM107"/>
+  <dimension ref="A1:BM109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -4489,14 +4522,14 @@
         <v>0</v>
       </c>
       <c r="BG2" s="1"/>
-      <c r="BH2" s="3" t="s">
+      <c r="BH2" s="5" t="s">
         <v>85</v>
       </c>
       <c r="BI2">
         <v>1</v>
       </c>
       <c r="BJ2" s="1"/>
-      <c r="BK2" s="3" t="s">
+      <c r="BK2" s="5" t="s">
         <v>86</v>
       </c>
       <c r="BL2">
@@ -4644,14 +4677,14 @@
         <v>0</v>
       </c>
       <c r="BG3" s="1"/>
-      <c r="BH3" s="3" t="s">
+      <c r="BH3" s="5" t="s">
         <v>103</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3" s="1"/>
-      <c r="BK3" s="3" t="s">
+      <c r="BK3" s="5" t="s">
         <v>104</v>
       </c>
       <c r="BL3">
@@ -4799,14 +4832,14 @@
         <v>0</v>
       </c>
       <c r="BG4" s="1"/>
-      <c r="BH4" s="3" t="s">
+      <c r="BH4" s="5" t="s">
         <v>125</v>
       </c>
       <c r="BI4">
         <v>0</v>
       </c>
       <c r="BJ4" s="1"/>
-      <c r="BK4" s="3" t="s">
+      <c r="BK4" s="5" t="s">
         <v>126</v>
       </c>
       <c r="BL4">
@@ -4952,14 +4985,14 @@
         <v>0</v>
       </c>
       <c r="BG5" s="1"/>
-      <c r="BH5" s="3" t="s">
+      <c r="BH5" s="5" t="s">
         <v>143</v>
       </c>
       <c r="BI5">
         <v>0</v>
       </c>
       <c r="BJ5" s="1"/>
-      <c r="BK5" s="3" t="s">
+      <c r="BK5" s="5" t="s">
         <v>144</v>
       </c>
       <c r="BL5">
@@ -5107,14 +5140,14 @@
         <v>1</v>
       </c>
       <c r="BG6" s="1"/>
-      <c r="BH6" s="3" t="s">
+      <c r="BH6" s="5" t="s">
         <v>158</v>
       </c>
       <c r="BI6">
         <v>1</v>
       </c>
       <c r="BJ6" s="1"/>
-      <c r="BK6" s="3" t="s">
+      <c r="BK6" s="5" t="s">
         <v>159</v>
       </c>
       <c r="BL6">
@@ -5262,14 +5295,14 @@
         <v>0</v>
       </c>
       <c r="BG7" s="1"/>
-      <c r="BH7" s="3" t="s">
+      <c r="BH7" s="5" t="s">
         <v>171</v>
       </c>
       <c r="BI7">
         <v>0</v>
       </c>
       <c r="BJ7" s="1"/>
-      <c r="BK7" s="3" t="s">
+      <c r="BK7" s="5" t="s">
         <v>172</v>
       </c>
       <c r="BL7">
@@ -5417,14 +5450,14 @@
         <v>1</v>
       </c>
       <c r="BG8" s="1"/>
-      <c r="BH8" s="3" t="s">
+      <c r="BH8" s="5" t="s">
         <v>183</v>
       </c>
       <c r="BI8">
         <v>0</v>
       </c>
       <c r="BJ8" s="1"/>
-      <c r="BK8" s="3" t="s">
+      <c r="BK8" s="5" t="s">
         <v>184</v>
       </c>
       <c r="BL8">
@@ -5572,14 +5605,14 @@
         <v>0</v>
       </c>
       <c r="BG9" s="1"/>
-      <c r="BH9" s="3" t="s">
+      <c r="BH9" s="5" t="s">
         <v>196</v>
       </c>
       <c r="BI9">
         <v>0</v>
       </c>
       <c r="BJ9" s="1"/>
-      <c r="BK9" s="3" t="s">
+      <c r="BK9" s="5" t="s">
         <v>197</v>
       </c>
       <c r="BL9">
@@ -5727,14 +5760,14 @@
         <v>0</v>
       </c>
       <c r="BG10" s="1"/>
-      <c r="BH10" s="3" t="s">
+      <c r="BH10" s="5" t="s">
         <v>209</v>
       </c>
       <c r="BI10">
         <v>1</v>
       </c>
       <c r="BJ10" s="1"/>
-      <c r="BK10" s="3" t="s">
+      <c r="BK10" s="5" t="s">
         <v>210</v>
       </c>
       <c r="BL10">
@@ -5882,14 +5915,14 @@
         <v>1</v>
       </c>
       <c r="BG11" s="1"/>
-      <c r="BH11" s="3" t="s">
+      <c r="BH11" s="5" t="s">
         <v>223</v>
       </c>
       <c r="BI11">
         <v>1</v>
       </c>
       <c r="BJ11" s="1"/>
-      <c r="BK11" s="3" t="s">
+      <c r="BK11" s="5" t="s">
         <v>224</v>
       </c>
       <c r="BL11">
@@ -6037,14 +6070,14 @@
         <v>1</v>
       </c>
       <c r="BG12" s="1"/>
-      <c r="BH12" s="3" t="s">
+      <c r="BH12" s="5" t="s">
         <v>223</v>
       </c>
       <c r="BI12">
         <v>1</v>
       </c>
       <c r="BJ12" s="1"/>
-      <c r="BK12" s="3" t="s">
+      <c r="BK12" s="5" t="s">
         <v>228</v>
       </c>
       <c r="BL12">
@@ -6192,14 +6225,14 @@
         <v>0</v>
       </c>
       <c r="BG13" s="1"/>
-      <c r="BH13" s="3" t="s">
+      <c r="BH13" s="5" t="s">
         <v>241</v>
       </c>
       <c r="BI13">
         <v>1</v>
       </c>
       <c r="BJ13" s="1"/>
-      <c r="BK13" s="3" t="s">
+      <c r="BK13" s="5" t="s">
         <v>242</v>
       </c>
       <c r="BL13">
@@ -6347,14 +6380,14 @@
         <v>0</v>
       </c>
       <c r="BG14" s="1"/>
-      <c r="BH14" s="3" t="s">
+      <c r="BH14" s="5" t="s">
         <v>251</v>
       </c>
       <c r="BI14">
         <v>0</v>
       </c>
       <c r="BJ14" s="1"/>
-      <c r="BK14" s="3" t="s">
+      <c r="BK14" s="5" t="s">
         <v>252</v>
       </c>
       <c r="BL14">
@@ -6502,14 +6535,14 @@
         <v>0</v>
       </c>
       <c r="BG15" s="1"/>
-      <c r="BH15" s="3" t="s">
+      <c r="BH15" s="5" t="s">
         <v>262</v>
       </c>
       <c r="BI15">
         <v>0</v>
       </c>
       <c r="BJ15" s="1"/>
-      <c r="BK15" s="3" t="s">
+      <c r="BK15" s="5" t="s">
         <v>263</v>
       </c>
       <c r="BL15">
@@ -6657,14 +6690,14 @@
         <v>1</v>
       </c>
       <c r="BG16" s="1"/>
-      <c r="BH16" s="3" t="s">
+      <c r="BH16" s="5" t="s">
         <v>275</v>
       </c>
       <c r="BI16">
         <v>1</v>
       </c>
       <c r="BJ16" s="1"/>
-      <c r="BK16" s="3" t="s">
+      <c r="BK16" s="5" t="s">
         <v>276</v>
       </c>
       <c r="BL16">
@@ -6812,14 +6845,14 @@
         <v>0</v>
       </c>
       <c r="BG17" s="1"/>
-      <c r="BH17" s="3" t="s">
+      <c r="BH17" s="5" t="s">
         <v>285</v>
       </c>
       <c r="BI17">
         <v>0</v>
       </c>
       <c r="BJ17" s="1"/>
-      <c r="BK17" s="3" t="s">
+      <c r="BK17" s="5" t="s">
         <v>286</v>
       </c>
       <c r="BL17">
@@ -6967,14 +7000,14 @@
         <v>0</v>
       </c>
       <c r="BG18" s="1"/>
-      <c r="BH18" s="3" t="s">
+      <c r="BH18" s="5" t="s">
         <v>296</v>
       </c>
       <c r="BI18">
         <v>0</v>
       </c>
       <c r="BJ18" s="1"/>
-      <c r="BK18" s="3" t="s">
+      <c r="BK18" s="5" t="s">
         <v>297</v>
       </c>
       <c r="BL18">
@@ -7122,14 +7155,14 @@
         <v>0</v>
       </c>
       <c r="BG19" s="1"/>
-      <c r="BH19" s="3" t="s">
+      <c r="BH19" s="5" t="s">
         <v>85</v>
       </c>
       <c r="BI19">
         <v>1</v>
       </c>
       <c r="BJ19" s="1"/>
-      <c r="BK19" s="3" t="s">
+      <c r="BK19" s="5" t="s">
         <v>305</v>
       </c>
       <c r="BL19">
@@ -7277,14 +7310,14 @@
         <v>0</v>
       </c>
       <c r="BG20" s="1"/>
-      <c r="BH20" s="3" t="s">
+      <c r="BH20" s="5" t="s">
         <v>315</v>
       </c>
       <c r="BI20">
         <v>0</v>
       </c>
       <c r="BJ20" s="1"/>
-      <c r="BK20" s="3" t="s">
+      <c r="BK20" s="5" t="s">
         <v>316</v>
       </c>
       <c r="BL20">
@@ -7432,14 +7465,14 @@
         <v>0</v>
       </c>
       <c r="BG21" s="1"/>
-      <c r="BH21" s="3" t="s">
+      <c r="BH21" s="5" t="s">
         <v>327</v>
       </c>
       <c r="BI21">
         <v>0</v>
       </c>
       <c r="BJ21" s="1"/>
-      <c r="BK21" s="3" t="s">
+      <c r="BK21" s="5" t="s">
         <v>328</v>
       </c>
       <c r="BL21">
@@ -7587,14 +7620,14 @@
         <v>0</v>
       </c>
       <c r="BG22" s="1"/>
-      <c r="BH22" s="3" t="s">
+      <c r="BH22" s="5" t="s">
         <v>339</v>
       </c>
       <c r="BI22">
         <v>1</v>
       </c>
       <c r="BJ22" s="1"/>
-      <c r="BK22" s="3" t="s">
+      <c r="BK22" s="5" t="s">
         <v>340</v>
       </c>
       <c r="BL22">
@@ -7742,14 +7775,14 @@
         <v>1</v>
       </c>
       <c r="BG23" s="1"/>
-      <c r="BH23" s="3" t="s">
+      <c r="BH23" s="5" t="s">
         <v>223</v>
       </c>
       <c r="BI23">
         <v>1</v>
       </c>
       <c r="BJ23" s="1"/>
-      <c r="BK23" s="3" t="s">
+      <c r="BK23" s="5" t="s">
         <v>345</v>
       </c>
       <c r="BL23">
@@ -7887,14 +7920,14 @@
         <v>0</v>
       </c>
       <c r="BG24" s="1"/>
-      <c r="BH24" s="3" t="s">
+      <c r="BH24" s="5" t="s">
         <v>171</v>
       </c>
       <c r="BI24">
         <v>0</v>
       </c>
       <c r="BJ24" s="1"/>
-      <c r="BK24" s="3" t="s">
+      <c r="BK24" s="5" t="s">
         <v>354</v>
       </c>
       <c r="BL24">
@@ -8042,14 +8075,14 @@
         <v>1</v>
       </c>
       <c r="BG25" s="1"/>
-      <c r="BH25" s="3" t="s">
+      <c r="BH25" s="5" t="s">
         <v>223</v>
       </c>
       <c r="BI25">
         <v>1</v>
       </c>
       <c r="BJ25" s="1"/>
-      <c r="BK25" s="3" t="s">
+      <c r="BK25" s="5" t="s">
         <v>184</v>
       </c>
       <c r="BL25">
@@ -8197,14 +8230,14 @@
         <v>1</v>
       </c>
       <c r="BG26" s="1"/>
-      <c r="BH26" s="3" t="s">
+      <c r="BH26" s="5" t="s">
         <v>369</v>
       </c>
       <c r="BI26">
         <v>1</v>
       </c>
       <c r="BJ26" s="1"/>
-      <c r="BK26" s="3" t="s">
+      <c r="BK26" s="5" t="s">
         <v>276</v>
       </c>
       <c r="BL26">
@@ -8352,14 +8385,14 @@
         <v>1</v>
       </c>
       <c r="BG27" s="1"/>
-      <c r="BH27" s="3" t="s">
+      <c r="BH27" s="5" t="s">
         <v>223</v>
       </c>
       <c r="BI27">
         <v>1</v>
       </c>
       <c r="BJ27" s="1"/>
-      <c r="BK27" s="3" t="s">
+      <c r="BK27" s="5" t="s">
         <v>374</v>
       </c>
       <c r="BL27">
@@ -8507,14 +8540,14 @@
         <v>1</v>
       </c>
       <c r="BG28" s="1"/>
-      <c r="BH28" s="3" t="s">
+      <c r="BH28" s="5" t="s">
         <v>209</v>
       </c>
       <c r="BI28">
         <v>1</v>
       </c>
       <c r="BJ28" s="1"/>
-      <c r="BK28" s="3" t="s">
+      <c r="BK28" s="5" t="s">
         <v>374</v>
       </c>
       <c r="BL28">
@@ -8662,14 +8695,14 @@
         <v>1</v>
       </c>
       <c r="BG29" s="1"/>
-      <c r="BH29" s="3" t="s">
+      <c r="BH29" s="5" t="s">
         <v>384</v>
       </c>
       <c r="BI29">
         <v>1</v>
       </c>
       <c r="BJ29" s="1"/>
-      <c r="BK29" s="3" t="s">
+      <c r="BK29" s="5" t="s">
         <v>276</v>
       </c>
       <c r="BL29">
@@ -8817,14 +8850,14 @@
         <v>1</v>
       </c>
       <c r="BG30" s="1"/>
-      <c r="BH30" s="3" t="s">
+      <c r="BH30" s="5" t="s">
         <v>384</v>
       </c>
       <c r="BI30">
         <v>1</v>
       </c>
       <c r="BJ30" s="1"/>
-      <c r="BK30" s="3" t="s">
+      <c r="BK30" s="5" t="s">
         <v>392</v>
       </c>
       <c r="BL30">
@@ -8972,14 +9005,14 @@
         <v>1</v>
       </c>
       <c r="BG31" s="1"/>
-      <c r="BH31" s="3" t="s">
+      <c r="BH31" s="5" t="s">
         <v>384</v>
       </c>
       <c r="BI31">
         <v>1</v>
       </c>
       <c r="BJ31" s="1"/>
-      <c r="BK31" s="3" t="s">
+      <c r="BK31" s="5" t="s">
         <v>305</v>
       </c>
       <c r="BL31">
@@ -9127,14 +9160,14 @@
         <v>1</v>
       </c>
       <c r="BG32" s="1"/>
-      <c r="BH32" s="3" t="s">
+      <c r="BH32" s="5" t="s">
         <v>408</v>
       </c>
       <c r="BI32">
         <v>1</v>
       </c>
       <c r="BJ32" s="1"/>
-      <c r="BK32" s="3" t="s">
+      <c r="BK32" s="5" t="s">
         <v>409</v>
       </c>
       <c r="BL32">
@@ -9282,14 +9315,14 @@
         <v>1</v>
       </c>
       <c r="BG33" s="1"/>
-      <c r="BH33" s="3" t="s">
+      <c r="BH33" s="5" t="s">
         <v>223</v>
       </c>
       <c r="BI33">
         <v>1</v>
       </c>
       <c r="BJ33" s="1"/>
-      <c r="BK33" s="3" t="s">
+      <c r="BK33" s="5" t="s">
         <v>210</v>
       </c>
       <c r="BL33">
@@ -9437,14 +9470,14 @@
         <v>1</v>
       </c>
       <c r="BG34" s="1"/>
-      <c r="BH34" s="3" t="s">
+      <c r="BH34" s="5" t="s">
         <v>275</v>
       </c>
       <c r="BI34">
         <v>1</v>
       </c>
       <c r="BJ34" s="1"/>
-      <c r="BK34" s="3" t="s">
+      <c r="BK34" s="5" t="s">
         <v>392</v>
       </c>
       <c r="BL34">
@@ -9592,14 +9625,14 @@
         <v>0</v>
       </c>
       <c r="BG35" s="1"/>
-      <c r="BH35" s="3" t="s">
+      <c r="BH35" s="5" t="s">
         <v>433</v>
       </c>
       <c r="BI35">
         <v>0</v>
       </c>
       <c r="BJ35" s="1"/>
-      <c r="BK35" s="3" t="s">
+      <c r="BK35" s="5" t="s">
         <v>305</v>
       </c>
       <c r="BL35">
@@ -9745,14 +9778,14 @@
         <v>0</v>
       </c>
       <c r="BG36" s="1"/>
-      <c r="BH36" s="3" t="s">
+      <c r="BH36" s="5" t="s">
         <v>442</v>
       </c>
       <c r="BI36">
         <v>0</v>
       </c>
       <c r="BJ36" s="1"/>
-      <c r="BK36" s="3" t="s">
+      <c r="BK36" s="5" t="s">
         <v>443</v>
       </c>
       <c r="BL36">
@@ -9900,14 +9933,14 @@
         <v>1</v>
       </c>
       <c r="BG37" s="1"/>
-      <c r="BH37" s="3" t="s">
+      <c r="BH37" s="5" t="s">
         <v>449</v>
       </c>
       <c r="BI37">
         <v>1</v>
       </c>
       <c r="BJ37" s="1"/>
-      <c r="BK37" s="3" t="s">
+      <c r="BK37" s="5" t="s">
         <v>172</v>
       </c>
       <c r="BL37">
@@ -10055,14 +10088,14 @@
         <v>0</v>
       </c>
       <c r="BG38" s="1"/>
-      <c r="BH38" s="3" t="s">
+      <c r="BH38" s="5" t="s">
         <v>460</v>
       </c>
       <c r="BI38">
         <v>1</v>
       </c>
       <c r="BJ38" s="1"/>
-      <c r="BK38" s="3" t="s">
+      <c r="BK38" s="5" t="s">
         <v>172</v>
       </c>
       <c r="BL38">
@@ -10210,14 +10243,14 @@
         <v>0</v>
       </c>
       <c r="BG39" s="1"/>
-      <c r="BH39" s="3" t="s">
+      <c r="BH39" s="5" t="s">
         <v>467</v>
       </c>
       <c r="BI39">
         <v>0</v>
       </c>
       <c r="BJ39" s="1"/>
-      <c r="BK39" s="3" t="s">
+      <c r="BK39" s="5" t="s">
         <v>468</v>
       </c>
       <c r="BL39">
@@ -10365,14 +10398,14 @@
         <v>1</v>
       </c>
       <c r="BG40" s="1"/>
-      <c r="BH40" s="3" t="s">
+      <c r="BH40" s="5" t="s">
         <v>474</v>
       </c>
       <c r="BI40">
         <v>1</v>
       </c>
       <c r="BJ40" s="1"/>
-      <c r="BK40" s="3" t="s">
+      <c r="BK40" s="5" t="s">
         <v>316</v>
       </c>
       <c r="BL40">
@@ -10520,14 +10553,14 @@
         <v>1</v>
       </c>
       <c r="BG41" s="1"/>
-      <c r="BH41" s="3" t="s">
+      <c r="BH41" s="5" t="s">
         <v>481</v>
       </c>
       <c r="BI41">
         <v>0</v>
       </c>
       <c r="BJ41" s="1"/>
-      <c r="BK41" s="3" t="s">
+      <c r="BK41" s="5" t="s">
         <v>482</v>
       </c>
       <c r="BL41">
@@ -10675,14 +10708,14 @@
         <v>0</v>
       </c>
       <c r="BG42" s="1"/>
-      <c r="BH42" s="3" t="s">
+      <c r="BH42" s="5" t="s">
         <v>489</v>
       </c>
       <c r="BI42">
         <v>0</v>
       </c>
       <c r="BJ42" s="1"/>
-      <c r="BK42" s="3" t="s">
+      <c r="BK42" s="5" t="s">
         <v>184</v>
       </c>
       <c r="BL42">
@@ -10830,14 +10863,14 @@
         <v>0</v>
       </c>
       <c r="BG43" s="1"/>
-      <c r="BH43" s="3" t="s">
+      <c r="BH43" s="5" t="s">
         <v>495</v>
       </c>
       <c r="BI43">
         <v>1</v>
       </c>
       <c r="BJ43" s="1"/>
-      <c r="BK43" s="3" t="s">
+      <c r="BK43" s="5" t="s">
         <v>496</v>
       </c>
       <c r="BL43">
@@ -10985,14 +11018,14 @@
         <v>1</v>
       </c>
       <c r="BG44" s="1"/>
-      <c r="BH44" s="3" t="s">
+      <c r="BH44" s="5" t="s">
         <v>223</v>
       </c>
       <c r="BI44">
         <v>1</v>
       </c>
       <c r="BJ44" s="1"/>
-      <c r="BK44" s="3" t="s">
+      <c r="BK44" s="5" t="s">
         <v>392</v>
       </c>
       <c r="BL44">
@@ -11140,14 +11173,14 @@
         <v>1</v>
       </c>
       <c r="BG45" s="1"/>
-      <c r="BH45" s="3" t="s">
+      <c r="BH45" s="5" t="s">
         <v>223</v>
       </c>
       <c r="BI45">
         <v>1</v>
       </c>
       <c r="BJ45" s="1"/>
-      <c r="BK45" s="3" t="s">
+      <c r="BK45" s="5" t="s">
         <v>276</v>
       </c>
       <c r="BL45">
@@ -11287,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="BG46" s="1"/>
-      <c r="BH46" s="3" t="s">
+      <c r="BH46" s="5" t="s">
         <v>515</v>
       </c>
       <c r="BI46">
@@ -11440,14 +11473,14 @@
         <v>1</v>
       </c>
       <c r="BG47" s="1"/>
-      <c r="BH47" s="3" t="s">
+      <c r="BH47" s="5" t="s">
         <v>223</v>
       </c>
       <c r="BI47">
         <v>1</v>
       </c>
       <c r="BJ47" s="1"/>
-      <c r="BK47" s="3" t="s">
+      <c r="BK47" s="5" t="s">
         <v>521</v>
       </c>
       <c r="BL47">
@@ -11587,14 +11620,14 @@
         <v>0</v>
       </c>
       <c r="BG48" s="1"/>
-      <c r="BH48" s="3" t="s">
+      <c r="BH48" s="5" t="s">
         <v>530</v>
       </c>
       <c r="BI48">
         <v>0</v>
       </c>
       <c r="BJ48" s="1"/>
-      <c r="BK48" s="3" t="s">
+      <c r="BK48" s="5" t="s">
         <v>531</v>
       </c>
       <c r="BL48">
@@ -11742,14 +11775,14 @@
         <v>0</v>
       </c>
       <c r="BG49" s="1"/>
-      <c r="BH49" s="3" t="s">
+      <c r="BH49" s="5" t="s">
         <v>543</v>
       </c>
       <c r="BI49">
         <v>1</v>
       </c>
       <c r="BJ49" s="1"/>
-      <c r="BK49" s="3" t="s">
+      <c r="BK49" s="5" t="s">
         <v>544</v>
       </c>
       <c r="BL49">
@@ -11897,14 +11930,14 @@
         <v>0</v>
       </c>
       <c r="BG50" s="1"/>
-      <c r="BH50" s="3" t="s">
+      <c r="BH50" s="5" t="s">
         <v>555</v>
       </c>
       <c r="BI50">
         <v>0</v>
       </c>
       <c r="BJ50" s="1"/>
-      <c r="BK50" s="3" t="s">
+      <c r="BK50" s="5" t="s">
         <v>409</v>
       </c>
       <c r="BL50">
@@ -12052,14 +12085,14 @@
         <v>0</v>
       </c>
       <c r="BG51" s="1"/>
-      <c r="BH51" s="3" t="s">
+      <c r="BH51" s="5" t="s">
         <v>561</v>
       </c>
       <c r="BI51">
         <v>0</v>
       </c>
       <c r="BJ51" s="1"/>
-      <c r="BK51" s="3" t="s">
+      <c r="BK51" s="5" t="s">
         <v>562</v>
       </c>
       <c r="BL51">
@@ -12207,14 +12240,14 @@
         <v>1</v>
       </c>
       <c r="BG52" s="1"/>
-      <c r="BH52" s="3" t="s">
+      <c r="BH52" s="5" t="s">
         <v>576</v>
       </c>
       <c r="BI52">
         <v>0</v>
       </c>
       <c r="BJ52" s="1"/>
-      <c r="BK52" s="3" t="s">
+      <c r="BK52" s="5" t="s">
         <v>577</v>
       </c>
       <c r="BL52">
@@ -12362,14 +12395,14 @@
         <v>0</v>
       </c>
       <c r="BG53" s="1"/>
-      <c r="BH53" s="3" t="s">
+      <c r="BH53" s="5" t="s">
         <v>584</v>
       </c>
       <c r="BI53">
         <v>0</v>
       </c>
       <c r="BJ53" s="1"/>
-      <c r="BK53" s="3" t="s">
+      <c r="BK53" s="5" t="s">
         <v>354</v>
       </c>
       <c r="BL53">
@@ -12517,14 +12550,14 @@
         <v>0</v>
       </c>
       <c r="BG54" s="1"/>
-      <c r="BH54" s="3" t="s">
+      <c r="BH54" s="5" t="s">
         <v>593</v>
       </c>
       <c r="BI54">
         <v>1</v>
       </c>
       <c r="BJ54" s="1"/>
-      <c r="BK54" s="3" t="s">
+      <c r="BK54" s="5" t="s">
         <v>594</v>
       </c>
       <c r="BL54">
@@ -12672,14 +12705,14 @@
         <v>0</v>
       </c>
       <c r="BG55" s="1"/>
-      <c r="BH55" s="3" t="s">
+      <c r="BH55" s="5" t="s">
         <v>603</v>
       </c>
       <c r="BI55">
         <v>0</v>
       </c>
       <c r="BJ55" s="1"/>
-      <c r="BK55" s="3" t="s">
+      <c r="BK55" s="5" t="s">
         <v>521</v>
       </c>
       <c r="BL55">
@@ -12827,14 +12860,14 @@
         <v>0</v>
       </c>
       <c r="BG56" s="1"/>
-      <c r="BH56" s="3" t="s">
+      <c r="BH56" s="5" t="s">
         <v>603</v>
       </c>
       <c r="BI56">
         <v>0</v>
       </c>
       <c r="BJ56" s="1"/>
-      <c r="BK56" s="3" t="s">
+      <c r="BK56" s="5" t="s">
         <v>521</v>
       </c>
       <c r="BL56">
@@ -12982,14 +13015,14 @@
         <v>1</v>
       </c>
       <c r="BG57" s="1"/>
-      <c r="BH57" s="3" t="s">
+      <c r="BH57" s="5" t="s">
         <v>408</v>
       </c>
       <c r="BI57">
         <v>1</v>
       </c>
       <c r="BJ57" s="1"/>
-      <c r="BK57" s="3" t="s">
+      <c r="BK57" s="5" t="s">
         <v>276</v>
       </c>
       <c r="BL57">
@@ -13137,14 +13170,14 @@
         <v>1</v>
       </c>
       <c r="BG58" s="1"/>
-      <c r="BH58" s="3" t="s">
+      <c r="BH58" s="5" t="s">
         <v>223</v>
       </c>
       <c r="BI58">
         <v>1</v>
       </c>
       <c r="BJ58" s="1"/>
-      <c r="BK58" s="3" t="s">
+      <c r="BK58" s="5" t="s">
         <v>305</v>
       </c>
       <c r="BL58">
@@ -13292,14 +13325,14 @@
         <v>0</v>
       </c>
       <c r="BG59" s="1"/>
-      <c r="BH59" s="3" t="s">
+      <c r="BH59" s="5" t="s">
         <v>626</v>
       </c>
       <c r="BI59">
         <v>1</v>
       </c>
       <c r="BJ59" s="1"/>
-      <c r="BK59" s="3" t="s">
+      <c r="BK59" s="5" t="s">
         <v>184</v>
       </c>
       <c r="BL59">
@@ -13447,14 +13480,14 @@
         <v>0</v>
       </c>
       <c r="BG60" s="1"/>
-      <c r="BH60" s="3" t="s">
+      <c r="BH60" s="5" t="s">
         <v>635</v>
       </c>
       <c r="BI60">
         <v>0</v>
       </c>
       <c r="BJ60" s="1"/>
-      <c r="BK60" s="3" t="s">
+      <c r="BK60" s="5" t="s">
         <v>636</v>
       </c>
       <c r="BL60">
@@ -13602,14 +13635,14 @@
         <v>0</v>
       </c>
       <c r="BG61" s="1"/>
-      <c r="BH61" s="3" t="s">
+      <c r="BH61" s="5" t="s">
         <v>474</v>
       </c>
       <c r="BI61">
         <v>1</v>
       </c>
       <c r="BJ61" s="1"/>
-      <c r="BK61" s="3" t="s">
+      <c r="BK61" s="5" t="s">
         <v>641</v>
       </c>
       <c r="BL61">
@@ -13757,14 +13790,14 @@
         <v>0</v>
       </c>
       <c r="BG62" s="1"/>
-      <c r="BH62" s="3" t="s">
+      <c r="BH62" s="5" t="s">
         <v>158</v>
       </c>
       <c r="BI62">
         <v>1</v>
       </c>
       <c r="BJ62" s="1"/>
-      <c r="BK62" s="3" t="s">
+      <c r="BK62" s="5" t="s">
         <v>297</v>
       </c>
       <c r="BL62">
@@ -13912,14 +13945,14 @@
         <v>1</v>
       </c>
       <c r="BG63" s="1"/>
-      <c r="BH63" s="3" t="s">
+      <c r="BH63" s="5" t="s">
         <v>653</v>
       </c>
       <c r="BI63">
         <v>0</v>
       </c>
       <c r="BJ63" s="1"/>
-      <c r="BK63" s="3" t="s">
+      <c r="BK63" s="5" t="s">
         <v>641</v>
       </c>
       <c r="BL63">
@@ -14067,14 +14100,14 @@
         <v>0</v>
       </c>
       <c r="BG64" s="1"/>
-      <c r="BH64" s="3" t="s">
+      <c r="BH64" s="5" t="s">
         <v>660</v>
       </c>
       <c r="BI64">
         <v>0</v>
       </c>
       <c r="BJ64" s="1"/>
-      <c r="BK64" s="3" t="s">
+      <c r="BK64" s="5" t="s">
         <v>661</v>
       </c>
       <c r="BL64">
@@ -14222,14 +14255,14 @@
         <v>0</v>
       </c>
       <c r="BG65" s="1"/>
-      <c r="BH65" s="3" t="s">
+      <c r="BH65" s="5" t="s">
         <v>665</v>
       </c>
       <c r="BI65">
         <v>1</v>
       </c>
       <c r="BJ65" s="1"/>
-      <c r="BK65" s="3" t="s">
+      <c r="BK65" s="5" t="s">
         <v>521</v>
       </c>
       <c r="BL65">
@@ -14377,14 +14410,14 @@
         <v>1</v>
       </c>
       <c r="BG66" s="1"/>
-      <c r="BH66" s="3" t="s">
+      <c r="BH66" s="5" t="s">
         <v>223</v>
       </c>
       <c r="BI66">
         <v>1</v>
       </c>
       <c r="BJ66" s="1"/>
-      <c r="BK66" s="3" t="s">
+      <c r="BK66" s="5" t="s">
         <v>184</v>
       </c>
       <c r="BL66">
@@ -14532,14 +14565,14 @@
         <v>0</v>
       </c>
       <c r="BG67" s="1"/>
-      <c r="BH67" s="3" t="s">
+      <c r="BH67" s="5" t="s">
         <v>678</v>
       </c>
       <c r="BI67">
         <v>1</v>
       </c>
       <c r="BJ67" s="1"/>
-      <c r="BK67" s="3" t="s">
+      <c r="BK67" s="5" t="s">
         <v>144</v>
       </c>
       <c r="BL67">
@@ -14687,14 +14720,14 @@
         <v>0</v>
       </c>
       <c r="BG68" s="1"/>
-      <c r="BH68" s="3" t="s">
+      <c r="BH68" s="5" t="s">
         <v>689</v>
       </c>
       <c r="BI68">
         <v>0</v>
       </c>
       <c r="BJ68" s="1"/>
-      <c r="BK68" s="3" t="s">
+      <c r="BK68" s="5" t="s">
         <v>496</v>
       </c>
       <c r="BL68">
@@ -14842,14 +14875,14 @@
         <v>0</v>
       </c>
       <c r="BG69" s="1"/>
-      <c r="BH69" s="3" t="s">
+      <c r="BH69" s="5" t="s">
         <v>103</v>
       </c>
       <c r="BI69">
         <v>0</v>
       </c>
       <c r="BJ69" s="1"/>
-      <c r="BK69" s="3" t="s">
+      <c r="BK69" s="5" t="s">
         <v>562</v>
       </c>
       <c r="BL69">
@@ -14997,14 +15030,14 @@
         <v>0</v>
       </c>
       <c r="BG70" s="1"/>
-      <c r="BH70" s="3" t="s">
+      <c r="BH70" s="5" t="s">
         <v>711</v>
       </c>
       <c r="BI70">
         <v>0</v>
       </c>
       <c r="BJ70" s="1"/>
-      <c r="BK70" s="3" t="s">
+      <c r="BK70" s="5" t="s">
         <v>712</v>
       </c>
       <c r="BL70">
@@ -15152,14 +15185,14 @@
         <v>0</v>
       </c>
       <c r="BG71" s="1"/>
-      <c r="BH71" s="3" t="s">
+      <c r="BH71" s="5" t="s">
         <v>275</v>
       </c>
       <c r="BI71">
         <v>1</v>
       </c>
       <c r="BJ71" s="1"/>
-      <c r="BK71" s="3" t="s">
+      <c r="BK71" s="5" t="s">
         <v>577</v>
       </c>
       <c r="BL71">
@@ -15307,14 +15340,14 @@
         <v>0</v>
       </c>
       <c r="BG72" s="1"/>
-      <c r="BH72" s="3" t="s">
+      <c r="BH72" s="5" t="s">
         <v>555</v>
       </c>
       <c r="BI72">
         <v>0</v>
       </c>
       <c r="BJ72" s="1"/>
-      <c r="BK72" s="3" t="s">
+      <c r="BK72" s="5" t="s">
         <v>159</v>
       </c>
       <c r="BL72">
@@ -15462,14 +15495,14 @@
         <v>0</v>
       </c>
       <c r="BG73" s="1"/>
-      <c r="BH73" s="3" t="s">
+      <c r="BH73" s="5" t="s">
         <v>726</v>
       </c>
       <c r="BI73">
         <v>0</v>
       </c>
       <c r="BJ73" s="1"/>
-      <c r="BK73" s="3" t="s">
+      <c r="BK73" s="5" t="s">
         <v>297</v>
       </c>
       <c r="BL73">
@@ -15617,14 +15650,14 @@
         <v>0</v>
       </c>
       <c r="BG74" s="1"/>
-      <c r="BH74" s="3" t="s">
+      <c r="BH74" s="5" t="s">
         <v>103</v>
       </c>
       <c r="BI74">
         <v>0</v>
       </c>
       <c r="BJ74" s="1"/>
-      <c r="BK74" s="3" t="s">
+      <c r="BK74" s="5" t="s">
         <v>276</v>
       </c>
       <c r="BL74">
@@ -15772,14 +15805,14 @@
         <v>1</v>
       </c>
       <c r="BG75" s="1"/>
-      <c r="BH75" s="3" t="s">
+      <c r="BH75" s="5" t="s">
         <v>742</v>
       </c>
       <c r="BI75">
         <v>1</v>
       </c>
       <c r="BJ75" s="1"/>
-      <c r="BK75" s="3" t="s">
+      <c r="BK75" s="5" t="s">
         <v>392</v>
       </c>
       <c r="BL75">
@@ -15927,14 +15960,14 @@
         <v>0</v>
       </c>
       <c r="BG76" s="1"/>
-      <c r="BH76" s="3" t="s">
+      <c r="BH76" s="5" t="s">
         <v>384</v>
       </c>
       <c r="BI76">
         <v>1</v>
       </c>
       <c r="BJ76" s="1"/>
-      <c r="BK76" s="3" t="s">
+      <c r="BK76" s="5" t="s">
         <v>496</v>
       </c>
       <c r="BL76">
@@ -16082,14 +16115,14 @@
         <v>0</v>
       </c>
       <c r="BG77" s="1"/>
-      <c r="BH77" s="3" t="s">
+      <c r="BH77" s="5" t="s">
         <v>384</v>
       </c>
       <c r="BI77">
         <v>1</v>
       </c>
       <c r="BJ77" s="1"/>
-      <c r="BK77" s="3" t="s">
+      <c r="BK77" s="5" t="s">
         <v>661</v>
       </c>
       <c r="BL77">
@@ -16237,14 +16270,14 @@
         <v>1</v>
       </c>
       <c r="BG78" s="1"/>
-      <c r="BH78" s="3" t="s">
+      <c r="BH78" s="5" t="s">
         <v>158</v>
       </c>
       <c r="BI78">
         <v>1</v>
       </c>
       <c r="BJ78" s="1"/>
-      <c r="BK78" s="3" t="s">
+      <c r="BK78" s="5" t="s">
         <v>661</v>
       </c>
       <c r="BL78">
@@ -16392,14 +16425,14 @@
         <v>1</v>
       </c>
       <c r="BG79" s="1"/>
-      <c r="BH79" s="3" t="s">
+      <c r="BH79" s="5" t="s">
         <v>223</v>
       </c>
       <c r="BI79">
         <v>1</v>
       </c>
       <c r="BJ79" s="1"/>
-      <c r="BK79" s="3" t="s">
+      <c r="BK79" s="5" t="s">
         <v>769</v>
       </c>
       <c r="BL79">
@@ -16547,14 +16580,14 @@
         <v>0</v>
       </c>
       <c r="BG80" s="1"/>
-      <c r="BH80" s="3" t="s">
+      <c r="BH80" s="5" t="s">
         <v>777</v>
       </c>
       <c r="BI80">
         <v>0</v>
       </c>
       <c r="BJ80" s="1"/>
-      <c r="BK80" s="3" t="s">
+      <c r="BK80" s="5" t="s">
         <v>661</v>
       </c>
       <c r="BL80">
@@ -16702,14 +16735,14 @@
         <v>0</v>
       </c>
       <c r="BG81" s="1"/>
-      <c r="BH81" s="3" t="s">
+      <c r="BH81" s="5" t="s">
         <v>433</v>
       </c>
       <c r="BI81">
         <v>0</v>
       </c>
       <c r="BJ81" s="1"/>
-      <c r="BK81" s="3" t="s">
+      <c r="BK81" s="5" t="s">
         <v>790</v>
       </c>
       <c r="BL81">
@@ -16853,14 +16886,14 @@
         <v>0</v>
       </c>
       <c r="BG82" s="1"/>
-      <c r="BH82" s="3" t="s">
+      <c r="BH82" s="5" t="s">
         <v>489</v>
       </c>
       <c r="BI82">
         <v>0</v>
       </c>
       <c r="BJ82" s="1"/>
-      <c r="BK82" s="3" t="s">
+      <c r="BK82" s="5" t="s">
         <v>316</v>
       </c>
       <c r="BL82">
@@ -17008,14 +17041,14 @@
         <v>1</v>
       </c>
       <c r="BG83" s="1"/>
-      <c r="BH83" s="3" t="s">
+      <c r="BH83" s="5" t="s">
         <v>408</v>
       </c>
       <c r="BI83">
         <v>1</v>
       </c>
       <c r="BJ83" s="1"/>
-      <c r="BK83" s="3" t="s">
+      <c r="BK83" s="5" t="s">
         <v>544</v>
       </c>
       <c r="BL83">
@@ -17163,14 +17196,14 @@
         <v>0</v>
       </c>
       <c r="BG84" s="1"/>
-      <c r="BH84" s="3" t="s">
+      <c r="BH84" s="5" t="s">
         <v>262</v>
       </c>
       <c r="BI84">
         <v>0</v>
       </c>
       <c r="BJ84" s="1"/>
-      <c r="BK84" s="3" t="s">
+      <c r="BK84" s="5" t="s">
         <v>810</v>
       </c>
       <c r="BL84">
@@ -17318,14 +17351,14 @@
         <v>0</v>
       </c>
       <c r="BG85" s="1"/>
-      <c r="BH85" s="3" t="s">
+      <c r="BH85" s="5" t="s">
         <v>489</v>
       </c>
       <c r="BI85">
         <v>0</v>
       </c>
       <c r="BJ85" s="1"/>
-      <c r="BK85" s="3" t="s">
+      <c r="BK85" s="5" t="s">
         <v>661</v>
       </c>
       <c r="BL85">
@@ -17473,14 +17506,14 @@
         <v>0</v>
       </c>
       <c r="BG86" s="1"/>
-      <c r="BH86" s="3" t="s">
+      <c r="BH86" s="5" t="s">
         <v>449</v>
       </c>
       <c r="BI86">
         <v>1</v>
       </c>
       <c r="BJ86" s="1"/>
-      <c r="BK86" s="3" t="s">
+      <c r="BK86" s="5" t="s">
         <v>594</v>
       </c>
       <c r="BL86">
@@ -17626,14 +17659,14 @@
         <v>0</v>
       </c>
       <c r="BG87" s="1"/>
-      <c r="BH87" s="3" t="s">
+      <c r="BH87" s="5" t="s">
         <v>209</v>
       </c>
       <c r="BI87">
         <v>1</v>
       </c>
       <c r="BJ87" s="1"/>
-      <c r="BK87" s="3" t="s">
+      <c r="BK87" s="5" t="s">
         <v>374</v>
       </c>
       <c r="BL87">
@@ -17781,14 +17814,14 @@
         <v>0</v>
       </c>
       <c r="BG88" s="1"/>
-      <c r="BH88" s="3" t="s">
+      <c r="BH88" s="5" t="s">
         <v>103</v>
       </c>
       <c r="BI88">
         <v>0</v>
       </c>
       <c r="BJ88" s="1"/>
-      <c r="BK88" s="3" t="s">
+      <c r="BK88" s="5" t="s">
         <v>835</v>
       </c>
       <c r="BL88">
@@ -17936,14 +17969,14 @@
         <v>0</v>
       </c>
       <c r="BG89" s="1"/>
-      <c r="BH89" s="3" t="s">
+      <c r="BH89" s="5" t="s">
         <v>495</v>
       </c>
       <c r="BI89">
         <v>1</v>
       </c>
       <c r="BJ89" s="1"/>
-      <c r="BK89" s="3" t="s">
+      <c r="BK89" s="5" t="s">
         <v>374</v>
       </c>
       <c r="BL89">
@@ -18089,14 +18122,14 @@
         <v>0</v>
       </c>
       <c r="BG90" s="1"/>
-      <c r="BH90" s="3" t="s">
+      <c r="BH90" s="5" t="s">
         <v>209</v>
       </c>
       <c r="BI90">
         <v>1</v>
       </c>
       <c r="BJ90" s="1"/>
-      <c r="BK90" s="3" t="s">
+      <c r="BK90" s="5" t="s">
         <v>224</v>
       </c>
       <c r="BL90">
@@ -18244,14 +18277,14 @@
         <v>0</v>
       </c>
       <c r="BG91" s="1"/>
-      <c r="BH91" s="3" t="s">
+      <c r="BH91" s="5" t="s">
         <v>857</v>
       </c>
       <c r="BI91">
         <v>0</v>
       </c>
       <c r="BJ91" s="1"/>
-      <c r="BK91" s="3" t="s">
+      <c r="BK91" s="5" t="s">
         <v>858</v>
       </c>
       <c r="BL91">
@@ -18399,14 +18432,14 @@
         <v>0</v>
       </c>
       <c r="BG92" s="1"/>
-      <c r="BH92" s="3" t="s">
+      <c r="BH92" s="5" t="s">
         <v>864</v>
       </c>
       <c r="BI92">
         <v>0</v>
       </c>
       <c r="BJ92" s="1"/>
-      <c r="BK92" s="3" t="s">
+      <c r="BK92" s="5" t="s">
         <v>496</v>
       </c>
       <c r="BL92">
@@ -18554,14 +18587,14 @@
         <v>0</v>
       </c>
       <c r="BG93" s="1"/>
-      <c r="BH93" s="3" t="s">
+      <c r="BH93" s="5" t="s">
         <v>103</v>
       </c>
       <c r="BI93">
         <v>0</v>
       </c>
       <c r="BJ93" s="1"/>
-      <c r="BK93" s="3" t="s">
+      <c r="BK93" s="5" t="s">
         <v>871</v>
       </c>
       <c r="BL93">
@@ -18709,14 +18742,14 @@
         <v>0</v>
       </c>
       <c r="BG94" s="1"/>
-      <c r="BH94" s="3" t="s">
+      <c r="BH94" s="5" t="s">
         <v>881</v>
       </c>
       <c r="BI94">
         <v>0</v>
       </c>
       <c r="BJ94" s="1"/>
-      <c r="BK94" s="3" t="s">
+      <c r="BK94" s="5" t="s">
         <v>882</v>
       </c>
       <c r="BL94">
@@ -19001,14 +19034,14 @@
         <v>0</v>
       </c>
       <c r="BG96" s="1"/>
-      <c r="BH96" s="3" t="s">
+      <c r="BH96" s="5" t="s">
         <v>892</v>
       </c>
       <c r="BI96">
         <v>0</v>
       </c>
       <c r="BJ96" s="1"/>
-      <c r="BK96" s="3" t="s">
+      <c r="BK96" s="5" t="s">
         <v>577</v>
       </c>
       <c r="BL96">
@@ -19156,14 +19189,14 @@
         <v>1</v>
       </c>
       <c r="BG97" s="1"/>
-      <c r="BH97" s="3" t="s">
+      <c r="BH97" s="5" t="s">
         <v>223</v>
       </c>
       <c r="BI97">
         <v>1</v>
       </c>
       <c r="BJ97" s="1"/>
-      <c r="BK97" s="3" t="s">
+      <c r="BK97" s="5" t="s">
         <v>392</v>
       </c>
       <c r="BL97">
@@ -19311,14 +19344,14 @@
         <v>1</v>
       </c>
       <c r="BG98" s="1"/>
-      <c r="BH98" s="3" t="s">
+      <c r="BH98" s="5" t="s">
         <v>223</v>
       </c>
       <c r="BI98">
         <v>1</v>
       </c>
       <c r="BJ98" s="1"/>
-      <c r="BK98" s="3" t="s">
+      <c r="BK98" s="5" t="s">
         <v>899</v>
       </c>
       <c r="BL98">
@@ -19466,14 +19499,14 @@
         <v>0</v>
       </c>
       <c r="BG99" s="1"/>
-      <c r="BH99" s="3" t="s">
+      <c r="BH99" s="5" t="s">
         <v>910</v>
       </c>
       <c r="BI99">
         <v>0</v>
       </c>
       <c r="BJ99" s="1"/>
-      <c r="BK99" s="3" t="s">
+      <c r="BK99" s="5" t="s">
         <v>577</v>
       </c>
       <c r="BL99">
@@ -19626,7 +19659,7 @@
         <v>0</v>
       </c>
       <c r="BJ100" s="1"/>
-      <c r="BK100" s="3" t="s">
+      <c r="BK100" s="5" t="s">
         <v>172</v>
       </c>
       <c r="BL100">
@@ -19774,14 +19807,14 @@
         <v>0</v>
       </c>
       <c r="BG101" s="1"/>
-      <c r="BH101" s="3" t="s">
+      <c r="BH101" s="5" t="s">
         <v>923</v>
       </c>
       <c r="BI101">
         <v>0</v>
       </c>
       <c r="BJ101" s="1"/>
-      <c r="BK101" s="3" t="s">
+      <c r="BK101" s="5" t="s">
         <v>354</v>
       </c>
       <c r="BL101">
@@ -19929,14 +19962,14 @@
         <v>1</v>
       </c>
       <c r="BG102" s="1"/>
-      <c r="BH102" s="3" t="s">
+      <c r="BH102" s="5" t="s">
         <v>460</v>
       </c>
       <c r="BI102">
         <v>1</v>
       </c>
       <c r="BJ102" s="1"/>
-      <c r="BK102" s="3" t="s">
+      <c r="BK102" s="5" t="s">
         <v>928</v>
       </c>
       <c r="BL102">
@@ -20082,14 +20115,14 @@
         <v>0</v>
       </c>
       <c r="BG103" s="1"/>
-      <c r="BH103" s="3" t="s">
+      <c r="BH103" s="5" t="s">
         <v>934</v>
       </c>
       <c r="BI103">
         <v>0</v>
       </c>
       <c r="BJ103" s="1"/>
-      <c r="BK103" s="3" t="s">
+      <c r="BK103" s="5" t="s">
         <v>661</v>
       </c>
       <c r="BL103">
@@ -20237,14 +20270,14 @@
         <v>0</v>
       </c>
       <c r="BG104" s="1"/>
-      <c r="BH104" s="3" t="s">
+      <c r="BH104" s="5" t="s">
         <v>938</v>
       </c>
       <c r="BI104">
         <v>0</v>
       </c>
       <c r="BJ104" s="1"/>
-      <c r="BK104" s="3" t="s">
+      <c r="BK104" s="5" t="s">
         <v>939</v>
       </c>
       <c r="BL104">
@@ -20392,14 +20425,14 @@
         <v>0</v>
       </c>
       <c r="BG105" s="1"/>
-      <c r="BH105" s="3" t="s">
+      <c r="BH105" s="5" t="s">
         <v>948</v>
       </c>
       <c r="BI105">
         <v>0</v>
       </c>
       <c r="BJ105" s="1"/>
-      <c r="BK105" s="3" t="s">
+      <c r="BK105" s="5" t="s">
         <v>899</v>
       </c>
       <c r="BL105">
@@ -20547,14 +20580,14 @@
         <v>0</v>
       </c>
       <c r="BG106" s="1"/>
-      <c r="BH106" s="3" t="s">
+      <c r="BH106" s="5" t="s">
         <v>384</v>
       </c>
       <c r="BI106">
         <v>1</v>
       </c>
       <c r="BJ106" s="1"/>
-      <c r="BK106" s="3" t="s">
+      <c r="BK106" s="5" t="s">
         <v>958</v>
       </c>
       <c r="BL106">
@@ -20702,20 +20735,326 @@
         <v>0</v>
       </c>
       <c r="BG107" s="1"/>
-      <c r="BH107" s="3" t="s">
+      <c r="BH107" s="5" t="s">
         <v>327</v>
       </c>
       <c r="BI107">
         <v>0</v>
       </c>
       <c r="BJ107" s="1"/>
-      <c r="BK107" s="3" t="s">
+      <c r="BK107" s="5" t="s">
         <v>965</v>
       </c>
       <c r="BL107">
         <v>0</v>
       </c>
       <c r="BM107" s="1"/>
+    </row>
+    <row r="108" spans="1:65">
+      <c r="A108" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="C108" s="3">
+        <v>18</v>
+      </c>
+      <c r="D108" s="3"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G108" s="3">
+        <v>1</v>
+      </c>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="J108" s="3">
+        <v>1</v>
+      </c>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M108" s="3">
+        <v>1</v>
+      </c>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="P108" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="S108" s="3">
+        <v>0</v>
+      </c>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="V108" s="3">
+        <v>1</v>
+      </c>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y108" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z108" s="3"/>
+      <c r="AA108" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="AB108" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="3"/>
+      <c r="AD108" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="AE108" s="3"/>
+      <c r="AF108" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG108" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH108" s="3"/>
+      <c r="AI108" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ108" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK108" s="3"/>
+      <c r="AL108" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM108" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN108" s="3"/>
+      <c r="AO108" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP108" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AQ108" s="3"/>
+      <c r="AR108" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS108" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT108" s="3"/>
+      <c r="AU108" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV108" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="AW108" s="3"/>
+      <c r="AX108" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY108" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="AZ108" s="3"/>
+      <c r="BA108" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB108" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="BC108" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD108" s="3"/>
+      <c r="BE108" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF108" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG108" s="3"/>
+      <c r="BH108" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="BI108" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ108" s="3"/>
+      <c r="BK108" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL108" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM108" s="3"/>
+    </row>
+    <row r="109" spans="1:65">
+      <c r="A109" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="C109" s="3">
+        <v>16</v>
+      </c>
+      <c r="D109" s="3"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G109" s="3">
+        <v>1</v>
+      </c>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J109" s="3">
+        <v>0</v>
+      </c>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="M109" s="3">
+        <v>1</v>
+      </c>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="P109" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="S109" s="3">
+        <v>0</v>
+      </c>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="V109" s="3">
+        <v>0</v>
+      </c>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y109" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z109" s="3"/>
+      <c r="AA109" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="AB109" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC109" s="3"/>
+      <c r="AD109" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE109" s="3"/>
+      <c r="AF109" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG109" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH109" s="3"/>
+      <c r="AI109" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ109" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK109" s="3"/>
+      <c r="AL109" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM109" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN109" s="3"/>
+      <c r="AO109" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP109" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ109" s="3"/>
+      <c r="AR109" s="3">
+        <v>1</v>
+      </c>
+      <c r="AS109" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT109" s="3"/>
+      <c r="AU109" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV109" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="AW109" s="3"/>
+      <c r="AX109" s="3">
+        <v>1</v>
+      </c>
+      <c r="AY109" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ109" s="3"/>
+      <c r="BA109" s="3">
+        <v>1</v>
+      </c>
+      <c r="BB109" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC109" s="3">
+        <v>1</v>
+      </c>
+      <c r="BD109" s="3"/>
+      <c r="BE109" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF109" s="3">
+        <v>1</v>
+      </c>
+      <c r="BG109" s="3"/>
+      <c r="BH109" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="BI109" s="3">
+        <v>1</v>
+      </c>
+      <c r="BJ109" s="3"/>
+      <c r="BK109" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="BL109" s="3">
+        <v>1</v>
+      </c>
+      <c r="BM109" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
